--- a/dataanalysis/data/predictions/1000/07220947_0952.xlsx
+++ b/dataanalysis/data/predictions/1000/07220947_0952.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="129">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-22</t>
   </si>
   <si>
@@ -398,12 +401,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -761,13 +758,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA62"/>
+  <dimension ref="A1:AB62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,19 +846,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>3.67</v>
@@ -879,7 +879,7 @@
         <v>20100.78</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K2">
         <v>6</v>
@@ -899,8 +899,23 @@
       <c r="P2">
         <v>-0.13</v>
       </c>
+      <c r="Q2">
+        <v>-3.26</v>
+      </c>
+      <c r="R2">
+        <v>5.03</v>
+      </c>
+      <c r="S2">
+        <v>-0.98</v>
+      </c>
       <c r="V2" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -908,22 +923,25 @@
       <c r="Z2">
         <v>9.690109252929688</v>
       </c>
-      <c r="AA2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>-2.78</v>
@@ -941,7 +959,7 @@
         <v>23937.1</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3">
         <v>10</v>
@@ -961,8 +979,23 @@
       <c r="P3">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="Q3">
+        <v>-0.77</v>
+      </c>
+      <c r="R3">
+        <v>25.56</v>
+      </c>
+      <c r="S3">
+        <v>14.21</v>
+      </c>
       <c r="V3" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -970,22 +1003,25 @@
       <c r="Z3">
         <v>2.388604879379272</v>
       </c>
-      <c r="AA3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300046</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>-0.24</v>
@@ -1003,7 +1039,7 @@
         <v>20915.63</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4">
         <v>6</v>
@@ -1023,8 +1059,23 @@
       <c r="P4">
         <v>-0.08</v>
       </c>
+      <c r="Q4">
+        <v>-1.26</v>
+      </c>
+      <c r="R4">
+        <v>41.59</v>
+      </c>
+      <c r="S4">
+        <v>-0.86</v>
+      </c>
       <c r="V4" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -1032,22 +1083,25 @@
       <c r="Z4">
         <v>5.617914199829102</v>
       </c>
-      <c r="AA4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>-4.42</v>
@@ -1065,7 +1119,7 @@
         <v>38199.01</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5">
         <v>8</v>
@@ -1085,8 +1139,23 @@
       <c r="P5">
         <v>-0.23</v>
       </c>
+      <c r="Q5">
+        <v>-1.11</v>
+      </c>
+      <c r="R5">
+        <v>6.36</v>
+      </c>
+      <c r="S5">
+        <v>-2</v>
+      </c>
       <c r="V5" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1094,22 +1163,25 @@
       <c r="Z5">
         <v>12.20737838745117</v>
       </c>
-      <c r="AA5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300095</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>19.98</v>
@@ -1127,7 +1199,7 @@
         <v>98014.09</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1147,8 +1219,23 @@
       <c r="P6">
         <v>5.65</v>
       </c>
+      <c r="Q6">
+        <v>-11.78</v>
+      </c>
+      <c r="R6">
+        <v>12.49</v>
+      </c>
+      <c r="S6">
+        <v>-1.89</v>
+      </c>
       <c r="V6" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -1156,22 +1243,25 @@
       <c r="Z6">
         <v>13.02893257141113</v>
       </c>
-      <c r="AA6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300195</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>1.56</v>
@@ -1189,7 +1279,7 @@
         <v>25627.76</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -1209,8 +1299,23 @@
       <c r="P7">
         <v>-0.86</v>
       </c>
+      <c r="Q7">
+        <v>-3.86</v>
+      </c>
+      <c r="R7">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="S7">
+        <v>-3.07</v>
+      </c>
       <c r="V7" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1218,22 +1323,25 @@
       <c r="Z7">
         <v>1.501752614974976</v>
       </c>
-      <c r="AA7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300199</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>1.7</v>
@@ -1251,7 +1359,7 @@
         <v>31345.62</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8">
         <v>15</v>
@@ -1271,8 +1379,23 @@
       <c r="P8">
         <v>0.06</v>
       </c>
+      <c r="Q8">
+        <v>-1.64</v>
+      </c>
+      <c r="R8">
+        <v>19.44</v>
+      </c>
+      <c r="S8">
+        <v>1.67</v>
+      </c>
       <c r="V8" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1280,22 +1403,25 @@
       <c r="Z8">
         <v>1.912847876548767</v>
       </c>
-      <c r="AA8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300283</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0.25</v>
@@ -1313,7 +1439,7 @@
         <v>15031.05</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1333,8 +1459,23 @@
       <c r="P9">
         <v>0.05</v>
       </c>
+      <c r="Q9">
+        <v>-4.45</v>
+      </c>
+      <c r="R9">
+        <v>7.8</v>
+      </c>
+      <c r="S9">
+        <v>-4.18</v>
+      </c>
       <c r="V9" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1342,22 +1483,25 @@
       <c r="Z9">
         <v>-0.2054685354232788</v>
       </c>
-      <c r="AA9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300414</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>2.42</v>
@@ -1375,7 +1519,7 @@
         <v>16286.17</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K10">
         <v>7</v>
@@ -1395,8 +1539,23 @@
       <c r="P10">
         <v>0.13</v>
       </c>
+      <c r="Q10">
+        <v>-1.35</v>
+      </c>
+      <c r="R10">
+        <v>14.77</v>
+      </c>
+      <c r="S10">
+        <v>5.65</v>
+      </c>
       <c r="V10" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1404,22 +1563,25 @@
       <c r="Z10">
         <v>3.475829839706421</v>
       </c>
-      <c r="AA10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300436</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>2.76</v>
@@ -1437,7 +1599,7 @@
         <v>34444.23</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K11">
         <v>14</v>
@@ -1457,8 +1619,23 @@
       <c r="P11">
         <v>0.03</v>
       </c>
+      <c r="Q11">
+        <v>4.72</v>
+      </c>
+      <c r="R11">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="S11">
+        <v>-2.26</v>
+      </c>
       <c r="V11" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1466,22 +1643,25 @@
       <c r="Z11">
         <v>2.934736967086792</v>
       </c>
-      <c r="AA11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300469</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>2.1</v>
@@ -1499,7 +1679,7 @@
         <v>21451.07</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K12">
         <v>6</v>
@@ -1519,8 +1699,23 @@
       <c r="P12">
         <v>0.02</v>
       </c>
+      <c r="Q12">
+        <v>-0.18</v>
+      </c>
+      <c r="R12">
+        <v>45.65</v>
+      </c>
+      <c r="S12">
+        <v>-2.25</v>
+      </c>
       <c r="V12" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1528,22 +1723,25 @@
       <c r="Z12">
         <v>3.597903966903687</v>
       </c>
-      <c r="AA12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300485</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>5.67</v>
@@ -1561,7 +1759,7 @@
         <v>35548.67</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1581,8 +1779,23 @@
       <c r="P13">
         <v>0.93</v>
       </c>
+      <c r="Q13">
+        <v>-4.87</v>
+      </c>
+      <c r="R13">
+        <v>16.76</v>
+      </c>
+      <c r="S13">
+        <v>3.33</v>
+      </c>
       <c r="V13" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1590,22 +1803,25 @@
       <c r="Z13">
         <v>2.587738513946533</v>
       </c>
-      <c r="AA13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300502</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>1.67</v>
@@ -1623,7 +1839,7 @@
         <v>336480</v>
       </c>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14">
         <v>20</v>
@@ -1643,8 +1859,23 @@
       <c r="P14">
         <v>0.04</v>
       </c>
+      <c r="Q14">
+        <v>-1.42</v>
+      </c>
+      <c r="R14">
+        <v>175.55</v>
+      </c>
+      <c r="S14">
+        <v>-3.14</v>
+      </c>
       <c r="V14" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1652,22 +1883,25 @@
       <c r="Z14">
         <v>0.07348839193582535</v>
       </c>
-      <c r="AA14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300522</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>2.93</v>
@@ -1685,7 +1919,7 @@
         <v>27254.53</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15">
         <v>6</v>
@@ -1705,8 +1939,23 @@
       <c r="P15">
         <v>0.44</v>
       </c>
+      <c r="Q15">
+        <v>-5.12</v>
+      </c>
+      <c r="R15">
+        <v>16.28</v>
+      </c>
+      <c r="S15">
+        <v>-5.51</v>
+      </c>
       <c r="V15" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1714,22 +1963,25 @@
       <c r="Z15">
         <v>1.766338467597961</v>
       </c>
-      <c r="AA15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300527</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>1.54</v>
@@ -1747,7 +1999,7 @@
         <v>21637.53</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16">
         <v>16</v>
@@ -1767,8 +2019,23 @@
       <c r="P16">
         <v>0.1</v>
       </c>
+      <c r="Q16">
+        <v>-7.12</v>
+      </c>
+      <c r="R16">
+        <v>12.06</v>
+      </c>
+      <c r="S16">
+        <v>7.3</v>
+      </c>
       <c r="V16" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1776,22 +2043,25 @@
       <c r="Z16">
         <v>5.65149450302124</v>
       </c>
-      <c r="AA16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300533</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>-1.2</v>
@@ -1809,7 +2079,7 @@
         <v>12647.71</v>
       </c>
       <c r="J17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17">
         <v>20</v>
@@ -1829,8 +2099,23 @@
       <c r="P17">
         <v>-0.32</v>
       </c>
+      <c r="Q17">
+        <v>0.38</v>
+      </c>
+      <c r="R17">
+        <v>37.3</v>
+      </c>
+      <c r="S17">
+        <v>0.97</v>
+      </c>
       <c r="V17" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1838,22 +2123,25 @@
       <c r="Z17">
         <v>3.146658420562744</v>
       </c>
-      <c r="AA17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300548</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>5.86</v>
@@ -1871,7 +2159,7 @@
         <v>96839.34</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K18">
         <v>6</v>
@@ -1891,8 +2179,23 @@
       <c r="P18">
         <v>0.28</v>
       </c>
+      <c r="Q18">
+        <v>2.84</v>
+      </c>
+      <c r="R18">
+        <v>90.11</v>
+      </c>
+      <c r="S18">
+        <v>-0.3</v>
+      </c>
       <c r="V18" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -1900,22 +2203,25 @@
       <c r="Z18">
         <v>7.699867248535156</v>
       </c>
-      <c r="AA18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300581</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1933,7 +2239,7 @@
         <v>56662.66</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1953,8 +2259,23 @@
       <c r="P19">
         <v>0.05</v>
       </c>
+      <c r="Q19">
+        <v>-4.42</v>
+      </c>
+      <c r="R19">
+        <v>21.05</v>
+      </c>
+      <c r="S19">
+        <v>-2.68</v>
+      </c>
       <c r="V19" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -1962,22 +2283,25 @@
       <c r="Z19">
         <v>4.258342742919922</v>
       </c>
-      <c r="AA19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300591</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>1.78</v>
@@ -1995,7 +2319,7 @@
         <v>37580.78</v>
       </c>
       <c r="J20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20">
         <v>21</v>
@@ -2015,8 +2339,23 @@
       <c r="P20">
         <v>0.25</v>
       </c>
+      <c r="Q20">
+        <v>-10.62</v>
+      </c>
+      <c r="R20">
+        <v>12.79</v>
+      </c>
+      <c r="S20">
+        <v>1.59</v>
+      </c>
       <c r="V20" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2024,22 +2363,25 @@
       <c r="Z20">
         <v>0.5242480635643005</v>
       </c>
-      <c r="AA20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300600</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>0.38</v>
@@ -2057,7 +2399,7 @@
         <v>9415.889999999999</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K21">
         <v>18</v>
@@ -2077,8 +2419,23 @@
       <c r="P21">
         <v>-0.05</v>
       </c>
+      <c r="Q21">
+        <v>-6.63</v>
+      </c>
+      <c r="R21">
+        <v>15.68</v>
+      </c>
+      <c r="S21">
+        <v>-1.32</v>
+      </c>
       <c r="V21" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2086,22 +2443,25 @@
       <c r="Z21">
         <v>2.369148254394531</v>
       </c>
-      <c r="AA21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300631</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>-5.47</v>
@@ -2119,7 +2479,7 @@
         <v>27183.94</v>
       </c>
       <c r="J22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K22">
         <v>7</v>
@@ -2139,8 +2499,23 @@
       <c r="P22">
         <v>-0.49</v>
       </c>
+      <c r="Q22">
+        <v>6.65</v>
+      </c>
+      <c r="R22">
+        <v>35</v>
+      </c>
+      <c r="S22">
+        <v>7.1</v>
+      </c>
       <c r="V22" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2148,22 +2523,25 @@
       <c r="Z22">
         <v>4.898707389831543</v>
       </c>
-      <c r="AA22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300644</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>-5.03</v>
@@ -2181,7 +2559,7 @@
         <v>27820.63</v>
       </c>
       <c r="J23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -2201,8 +2579,23 @@
       <c r="P23">
         <v>-0.18</v>
       </c>
+      <c r="Q23">
+        <v>-4.69</v>
+      </c>
+      <c r="R23">
+        <v>33.34</v>
+      </c>
+      <c r="S23">
+        <v>-4.03</v>
+      </c>
       <c r="V23" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2210,22 +2603,25 @@
       <c r="Z23">
         <v>6.355509757995605</v>
       </c>
-      <c r="AA23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300665</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>3.76</v>
@@ -2243,7 +2639,7 @@
         <v>32597.11</v>
       </c>
       <c r="J24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -2263,8 +2659,23 @@
       <c r="P24">
         <v>-0.75</v>
       </c>
+      <c r="Q24">
+        <v>-11.8</v>
+      </c>
+      <c r="R24">
+        <v>11.07</v>
+      </c>
+      <c r="S24">
+        <v>2.79</v>
+      </c>
       <c r="V24" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2272,22 +2683,25 @@
       <c r="Z24">
         <v>-3.098017930984497</v>
       </c>
-      <c r="AA24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300683</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>6.28</v>
@@ -2305,7 +2719,7 @@
         <v>31295.89</v>
       </c>
       <c r="J25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -2325,8 +2739,23 @@
       <c r="P25">
         <v>0.14</v>
       </c>
+      <c r="Q25">
+        <v>7.18</v>
+      </c>
+      <c r="R25">
+        <v>48.9</v>
+      </c>
+      <c r="S25">
+        <v>21.34</v>
+      </c>
       <c r="V25" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2334,22 +2763,25 @@
       <c r="Z25">
         <v>1.406768083572388</v>
       </c>
-      <c r="AA25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300722</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>9.48</v>
@@ -2367,7 +2799,7 @@
         <v>119839.07</v>
       </c>
       <c r="J26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2387,8 +2819,23 @@
       <c r="P26">
         <v>-1.9</v>
       </c>
+      <c r="Q26">
+        <v>-8.84</v>
+      </c>
+      <c r="R26">
+        <v>42.8</v>
+      </c>
+      <c r="S26">
+        <v>-4.76</v>
+      </c>
       <c r="V26" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2396,22 +2843,25 @@
       <c r="Z26">
         <v>3.635038375854492</v>
       </c>
-      <c r="AA26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300748</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>0.22</v>
@@ -2429,7 +2879,7 @@
         <v>33636.26</v>
       </c>
       <c r="J27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K27">
         <v>8</v>
@@ -2449,8 +2899,23 @@
       <c r="P27">
         <v>-0.01</v>
       </c>
+      <c r="Q27">
+        <v>-0.64</v>
+      </c>
+      <c r="R27">
+        <v>27.08</v>
+      </c>
+      <c r="S27">
+        <v>1.08</v>
+      </c>
       <c r="V27" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2458,22 +2923,25 @@
       <c r="Z27">
         <v>4.465646743774414</v>
       </c>
-      <c r="AA27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300803</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>0.46</v>
@@ -2491,7 +2959,7 @@
         <v>66675.28999999999</v>
       </c>
       <c r="J28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K28">
         <v>18</v>
@@ -2511,8 +2979,23 @@
       <c r="P28">
         <v>-0.09</v>
       </c>
+      <c r="Q28">
+        <v>2.26</v>
+      </c>
+      <c r="R28">
+        <v>94</v>
+      </c>
+      <c r="S28">
+        <v>11.37</v>
+      </c>
       <c r="V28" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2520,22 +3003,25 @@
       <c r="Z28">
         <v>3.675888538360596</v>
       </c>
-      <c r="AA28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300830</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>-0.28</v>
@@ -2553,7 +3039,7 @@
         <v>14279.48</v>
       </c>
       <c r="J29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2573,8 +3059,23 @@
       <c r="P29">
         <v>-0.44</v>
       </c>
+      <c r="Q29">
+        <v>-1.53</v>
+      </c>
+      <c r="R29">
+        <v>10.66</v>
+      </c>
+      <c r="S29">
+        <v>-1.11</v>
+      </c>
       <c r="V29" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2582,22 +3083,25 @@
       <c r="Z29">
         <v>6.703166961669922</v>
       </c>
-      <c r="AA29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300835</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>4.71</v>
@@ -2615,7 +3119,7 @@
         <v>21974.23</v>
       </c>
       <c r="J30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2635,8 +3139,23 @@
       <c r="P30">
         <v>0.35</v>
       </c>
+      <c r="Q30">
+        <v>6.6</v>
+      </c>
+      <c r="R30">
+        <v>53.98</v>
+      </c>
+      <c r="S30">
+        <v>7.96</v>
+      </c>
       <c r="V30" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2644,22 +3163,25 @@
       <c r="Z30">
         <v>5.456038475036621</v>
       </c>
-      <c r="AA30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300865</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>20.01</v>
@@ -2677,7 +3199,7 @@
         <v>37915.75</v>
       </c>
       <c r="J31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2697,8 +3219,23 @@
       <c r="P31">
         <v>-3.28</v>
       </c>
+      <c r="Q31">
+        <v>-1.19</v>
+      </c>
+      <c r="R31">
+        <v>52.62</v>
+      </c>
+      <c r="S31">
+        <v>20</v>
+      </c>
       <c r="V31" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
       </c>
       <c r="Y31">
         <v>1</v>
@@ -2706,22 +3243,25 @@
       <c r="Z31">
         <v>15.44725894927979</v>
       </c>
-      <c r="AA31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300872</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>4.69</v>
@@ -2739,7 +3279,7 @@
         <v>79335.72</v>
       </c>
       <c r="J32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K32">
         <v>27</v>
@@ -2759,8 +3299,23 @@
       <c r="P32">
         <v>0.65</v>
       </c>
+      <c r="Q32">
+        <v>-8.27</v>
+      </c>
+      <c r="R32">
+        <v>24.86</v>
+      </c>
+      <c r="S32">
+        <v>-2.24</v>
+      </c>
       <c r="V32" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>1</v>
@@ -2768,22 +3323,25 @@
       <c r="Z32">
         <v>15.63883209228516</v>
       </c>
-      <c r="AA32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300922</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>1.88</v>
@@ -2801,7 +3359,7 @@
         <v>15302.58</v>
       </c>
       <c r="J33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2821,8 +3379,23 @@
       <c r="P33">
         <v>0.11</v>
       </c>
+      <c r="Q33">
+        <v>-4.31</v>
+      </c>
+      <c r="R33">
+        <v>30.13</v>
+      </c>
+      <c r="S33">
+        <v>-2.52</v>
+      </c>
       <c r="V33" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2830,22 +3403,25 @@
       <c r="Z33">
         <v>4.504768371582031</v>
       </c>
-      <c r="AA33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>300950</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>-3.96</v>
@@ -2863,7 +3439,7 @@
         <v>12998.88</v>
       </c>
       <c r="J34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K34">
         <v>6</v>
@@ -2883,8 +3459,23 @@
       <c r="P34">
         <v>-0.3</v>
       </c>
+      <c r="Q34">
+        <v>0.17</v>
+      </c>
+      <c r="R34">
+        <v>30.5</v>
+      </c>
+      <c r="S34">
+        <v>0.53</v>
+      </c>
       <c r="V34" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -2892,22 +3483,25 @@
       <c r="Z34">
         <v>1.823737621307373</v>
       </c>
-      <c r="AA34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>301012</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>-2.61</v>
@@ -2925,7 +3519,7 @@
         <v>12879.85</v>
       </c>
       <c r="J35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -2945,8 +3539,23 @@
       <c r="P35">
         <v>0.18</v>
       </c>
+      <c r="Q35">
+        <v>-3.7</v>
+      </c>
+      <c r="R35">
+        <v>22.81</v>
+      </c>
+      <c r="S35">
+        <v>-2.94</v>
+      </c>
       <c r="V35" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -2954,22 +3563,25 @@
       <c r="Z35">
         <v>4.317589282989502</v>
       </c>
-      <c r="AA35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>301038</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>16.1</v>
@@ -2987,7 +3599,7 @@
         <v>62051.29</v>
       </c>
       <c r="J36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3007,8 +3619,23 @@
       <c r="P36">
         <v>-2.04</v>
       </c>
+      <c r="Q36">
+        <v>20.02</v>
+      </c>
+      <c r="R36">
+        <v>27.82</v>
+      </c>
+      <c r="S36">
+        <v>24.03</v>
+      </c>
       <c r="V36" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3016,22 +3643,25 @@
       <c r="Z36">
         <v>6.439858436584473</v>
       </c>
-      <c r="AA36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>301132</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>-0.95</v>
@@ -3049,7 +3679,7 @@
         <v>11854.01</v>
       </c>
       <c r="J37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3069,8 +3699,23 @@
       <c r="P37">
         <v>-0.59</v>
       </c>
+      <c r="Q37">
+        <v>-1.92</v>
+      </c>
+      <c r="R37">
+        <v>36.93</v>
+      </c>
+      <c r="S37">
+        <v>-2.09</v>
+      </c>
       <c r="V37" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3078,22 +3723,25 @@
       <c r="Z37">
         <v>3.094844818115234</v>
       </c>
-      <c r="AA37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>301141</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>-3.38</v>
@@ -3111,7 +3759,7 @@
         <v>25395.02</v>
       </c>
       <c r="J38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K38">
         <v>18</v>
@@ -3131,8 +3779,23 @@
       <c r="P38">
         <v>-1.54</v>
       </c>
+      <c r="Q38">
+        <v>0.82</v>
+      </c>
+      <c r="R38">
+        <v>69.56</v>
+      </c>
+      <c r="S38">
+        <v>2.69</v>
+      </c>
       <c r="V38" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3140,22 +3803,25 @@
       <c r="Z38">
         <v>7.413938999176025</v>
       </c>
-      <c r="AA38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>301161</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>20.01</v>
@@ -3173,7 +3839,7 @@
         <v>28494.21</v>
       </c>
       <c r="J39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -3193,8 +3859,23 @@
       <c r="P39">
         <v>3.52</v>
       </c>
+      <c r="Q39">
+        <v>-16.05</v>
+      </c>
+      <c r="R39">
+        <v>38.48</v>
+      </c>
+      <c r="S39">
+        <v>8.359999999999999</v>
+      </c>
       <c r="V39" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>1</v>
@@ -3202,22 +3883,25 @@
       <c r="Z39">
         <v>14.30899238586426</v>
       </c>
-      <c r="AA39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>301165</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>0.9</v>
@@ -3235,7 +3919,7 @@
         <v>15325.84</v>
       </c>
       <c r="J40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K40">
         <v>5</v>
@@ -3255,8 +3939,23 @@
       <c r="P40">
         <v>0.05</v>
       </c>
+      <c r="Q40">
+        <v>2.22</v>
+      </c>
+      <c r="R40">
+        <v>63.25</v>
+      </c>
+      <c r="S40">
+        <v>0.5600000000000001</v>
+      </c>
       <c r="V40" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3264,22 +3963,25 @@
       <c r="Z40">
         <v>2.11507773399353</v>
       </c>
-      <c r="AA40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>301176</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>-0.91</v>
@@ -3297,7 +3999,7 @@
         <v>8955.200000000001</v>
       </c>
       <c r="J41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K41">
         <v>23</v>
@@ -3317,8 +4019,23 @@
       <c r="P41">
         <v>-0.24</v>
       </c>
+      <c r="Q41">
+        <v>-3.17</v>
+      </c>
+      <c r="R41">
+        <v>31.99</v>
+      </c>
+      <c r="S41">
+        <v>-5.1</v>
+      </c>
       <c r="V41" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3326,22 +4043,25 @@
       <c r="Z41">
         <v>3.209596872329712</v>
       </c>
-      <c r="AA41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>301183</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>-2.91</v>
@@ -3359,7 +4079,7 @@
         <v>16537.55</v>
       </c>
       <c r="J42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K42">
         <v>5</v>
@@ -3379,8 +4099,23 @@
       <c r="P42">
         <v>-0.31</v>
       </c>
+      <c r="Q42">
+        <v>-1.96</v>
+      </c>
+      <c r="R42">
+        <v>69.45</v>
+      </c>
+      <c r="S42">
+        <v>-3.97</v>
+      </c>
       <c r="V42" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3388,22 +4123,25 @@
       <c r="Z42">
         <v>2.920050621032715</v>
       </c>
-      <c r="AA42" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>301201</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>10.29</v>
@@ -3421,7 +4159,7 @@
         <v>28421.16</v>
       </c>
       <c r="J43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -3441,8 +4179,23 @@
       <c r="P43">
         <v>-0.22</v>
       </c>
+      <c r="Q43">
+        <v>-13.12</v>
+      </c>
+      <c r="R43">
+        <v>30.46</v>
+      </c>
+      <c r="S43">
+        <v>-5.58</v>
+      </c>
       <c r="V43" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>1</v>
@@ -3450,22 +4203,25 @@
       <c r="Z43">
         <v>2.156063079833984</v>
       </c>
-      <c r="AA43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>301217</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>1.28</v>
@@ -3483,7 +4239,7 @@
         <v>50874.58</v>
       </c>
       <c r="J44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K44">
         <v>12</v>
@@ -3503,8 +4259,23 @@
       <c r="P44">
         <v>-0.09</v>
       </c>
+      <c r="Q44">
+        <v>-2.45</v>
+      </c>
+      <c r="R44">
+        <v>20.16</v>
+      </c>
+      <c r="S44">
+        <v>-5.79</v>
+      </c>
       <c r="V44" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3512,22 +4283,25 @@
       <c r="Z44">
         <v>4.203425407409668</v>
       </c>
-      <c r="AA44" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>301265</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>-2.41</v>
@@ -3545,7 +4319,7 @@
         <v>10511.86</v>
       </c>
       <c r="J45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -3565,8 +4339,23 @@
       <c r="P45">
         <v>-0.05</v>
       </c>
+      <c r="Q45">
+        <v>-3.92</v>
+      </c>
+      <c r="R45">
+        <v>12.35</v>
+      </c>
+      <c r="S45">
+        <v>-1.52</v>
+      </c>
       <c r="V45" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>1</v>
@@ -3574,22 +4363,25 @@
       <c r="Z45">
         <v>6.015235900878906</v>
       </c>
-      <c r="AA45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>301357</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>3.36</v>
@@ -3607,7 +4399,7 @@
         <v>22846.06</v>
       </c>
       <c r="J46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -3627,8 +4419,23 @@
       <c r="P46">
         <v>-0.14</v>
       </c>
+      <c r="Q46">
+        <v>-9.949999999999999</v>
+      </c>
+      <c r="R46">
+        <v>84.58</v>
+      </c>
+      <c r="S46">
+        <v>-1.43</v>
+      </c>
       <c r="V46" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3636,22 +4443,25 @@
       <c r="Z46">
         <v>0.1054941713809967</v>
       </c>
-      <c r="AA46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>301377</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>1.24</v>
@@ -3669,7 +4479,7 @@
         <v>12728.53</v>
       </c>
       <c r="J47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K47">
         <v>6</v>
@@ -3689,8 +4499,23 @@
       <c r="P47">
         <v>0.04</v>
       </c>
+      <c r="Q47">
+        <v>4.98</v>
+      </c>
+      <c r="R47">
+        <v>48.5</v>
+      </c>
+      <c r="S47">
+        <v>6.45</v>
+      </c>
       <c r="V47" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3698,22 +4523,25 @@
       <c r="Z47">
         <v>2.318404912948608</v>
       </c>
-      <c r="AA47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>301388</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>-2.93</v>
@@ -3731,7 +4559,7 @@
         <v>8242.030000000001</v>
       </c>
       <c r="J48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K48">
         <v>12</v>
@@ -3751,8 +4579,23 @@
       <c r="P48">
         <v>-0.52</v>
       </c>
+      <c r="Q48">
+        <v>-7.69</v>
+      </c>
+      <c r="R48">
+        <v>37.11</v>
+      </c>
+      <c r="S48">
+        <v>-4.97</v>
+      </c>
       <c r="V48" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3760,22 +4603,25 @@
       <c r="Z48">
         <v>4.536555767059326</v>
       </c>
-      <c r="AA48" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>301389</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>0.21</v>
@@ -3793,7 +4639,7 @@
         <v>14679.26</v>
       </c>
       <c r="J49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K49">
         <v>11</v>
@@ -3813,8 +4659,23 @@
       <c r="P49">
         <v>0.26</v>
       </c>
+      <c r="Q49">
+        <v>0.5</v>
+      </c>
+      <c r="R49">
+        <v>32.22</v>
+      </c>
+      <c r="S49">
+        <v>-4.84</v>
+      </c>
       <c r="V49" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3822,22 +4683,25 @@
       <c r="Z49">
         <v>1.666856408119202</v>
       </c>
-      <c r="AA49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>301421</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>1.7</v>
@@ -3855,7 +4719,7 @@
         <v>9141.209999999999</v>
       </c>
       <c r="J50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K50">
         <v>22</v>
@@ -3875,8 +4739,23 @@
       <c r="P50">
         <v>0.23</v>
       </c>
+      <c r="Q50">
+        <v>1.6</v>
+      </c>
+      <c r="R50">
+        <v>77.09</v>
+      </c>
+      <c r="S50">
+        <v>1.21</v>
+      </c>
       <c r="V50" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3884,22 +4763,25 @@
       <c r="Z50">
         <v>5.235918045043945</v>
       </c>
-      <c r="AA50" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>301511</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>-0.52</v>
@@ -3917,7 +4799,7 @@
         <v>33607.02</v>
       </c>
       <c r="J51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K51">
         <v>21</v>
@@ -3937,8 +4819,23 @@
       <c r="P51">
         <v>0.19</v>
       </c>
+      <c r="Q51">
+        <v>-3.45</v>
+      </c>
+      <c r="R51">
+        <v>27.4</v>
+      </c>
+      <c r="S51">
+        <v>-4.36</v>
+      </c>
       <c r="V51" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>1</v>
@@ -3946,22 +4843,25 @@
       <c r="Z51">
         <v>5.008986473083496</v>
       </c>
-      <c r="AA51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>301526</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>-1.19</v>
@@ -3979,7 +4879,7 @@
         <v>21499.68</v>
       </c>
       <c r="J52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K52">
         <v>11</v>
@@ -3999,8 +4899,23 @@
       <c r="P52">
         <v>-0.19</v>
       </c>
+      <c r="Q52">
+        <v>-2.24</v>
+      </c>
+      <c r="R52">
+        <v>4.94</v>
+      </c>
+      <c r="S52">
+        <v>-0.8</v>
+      </c>
       <c r="V52" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -4008,22 +4923,25 @@
       <c r="Z52">
         <v>2.254491806030273</v>
       </c>
-      <c r="AA52" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>301626</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>0.6899999999999999</v>
@@ -4041,7 +4959,7 @@
         <v>12479.62</v>
       </c>
       <c r="J53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -4061,8 +4979,23 @@
       <c r="P53">
         <v>0.01</v>
       </c>
+      <c r="Q53">
+        <v>5.72</v>
+      </c>
+      <c r="R53">
+        <v>140.33</v>
+      </c>
+      <c r="S53">
+        <v>8.949999999999999</v>
+      </c>
       <c r="V53" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -4070,22 +5003,25 @@
       <c r="Z53">
         <v>4.626939296722412</v>
       </c>
-      <c r="AA53" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>688062</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>-2.79</v>
@@ -4103,7 +5039,7 @@
         <v>27320.46</v>
       </c>
       <c r="J54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K54">
         <v>14</v>
@@ -4123,8 +5059,23 @@
       <c r="P54">
         <v>-0.37</v>
       </c>
+      <c r="Q54">
+        <v>0.03</v>
+      </c>
+      <c r="R54">
+        <v>34.01</v>
+      </c>
+      <c r="S54">
+        <v>-2.55</v>
+      </c>
       <c r="V54" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -4132,22 +5083,25 @@
       <c r="Z54">
         <v>3.860630989074707</v>
       </c>
-      <c r="AA54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>688117</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>0.05</v>
@@ -4165,7 +5119,7 @@
         <v>9317.040000000001</v>
       </c>
       <c r="J55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K55">
         <v>6</v>
@@ -4185,8 +5139,23 @@
       <c r="P55">
         <v>-0.11</v>
       </c>
+      <c r="Q55">
+        <v>-1.95</v>
+      </c>
+      <c r="R55">
+        <v>41.79</v>
+      </c>
+      <c r="S55">
+        <v>-1.72</v>
+      </c>
       <c r="V55" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -4194,22 +5163,25 @@
       <c r="Z55">
         <v>3.428676128387451</v>
       </c>
-      <c r="AA55" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>688202</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>3.54</v>
@@ -4227,7 +5199,7 @@
         <v>26962.12</v>
       </c>
       <c r="J56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K56">
         <v>11</v>
@@ -4247,8 +5219,23 @@
       <c r="P56">
         <v>0.19</v>
       </c>
+      <c r="Q56">
+        <v>8.83</v>
+      </c>
+      <c r="R56">
+        <v>68.5</v>
+      </c>
+      <c r="S56">
+        <v>12.46</v>
+      </c>
       <c r="V56" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -4256,22 +5243,25 @@
       <c r="Z56">
         <v>1.977860331535339</v>
       </c>
-      <c r="AA56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>688221</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>2.66</v>
@@ -4289,7 +5279,7 @@
         <v>19510.1</v>
       </c>
       <c r="J57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K57">
         <v>12</v>
@@ -4309,8 +5299,23 @@
       <c r="P57">
         <v>0.27</v>
       </c>
+      <c r="Q57">
+        <v>-4.74</v>
+      </c>
+      <c r="R57">
+        <v>23.92</v>
+      </c>
+      <c r="S57">
+        <v>4.96</v>
+      </c>
       <c r="V57" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4318,22 +5323,25 @@
       <c r="Z57">
         <v>1.953540802001953</v>
       </c>
-      <c r="AA57" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>688222</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>9.81</v>
@@ -4351,7 +5359,7 @@
         <v>47872.22</v>
       </c>
       <c r="J58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K58">
         <v>3</v>
@@ -4371,8 +5379,23 @@
       <c r="P58">
         <v>0.48</v>
       </c>
+      <c r="Q58">
+        <v>-2.8</v>
+      </c>
+      <c r="R58">
+        <v>25.35</v>
+      </c>
+      <c r="S58">
+        <v>-2.42</v>
+      </c>
       <c r="V58" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4380,22 +5403,25 @@
       <c r="Z58">
         <v>1.707375645637512</v>
       </c>
-      <c r="AA58" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>688313</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>6.1</v>
@@ -4413,7 +5439,7 @@
         <v>70582.98</v>
       </c>
       <c r="J59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K59">
         <v>25</v>
@@ -4433,8 +5459,23 @@
       <c r="P59">
         <v>0.13</v>
       </c>
+      <c r="Q59">
+        <v>4.42</v>
+      </c>
+      <c r="R59">
+        <v>59.16</v>
+      </c>
+      <c r="S59">
+        <v>5.3</v>
+      </c>
       <c r="V59" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -4442,22 +5483,25 @@
       <c r="Z59">
         <v>-0.9146342277526855</v>
       </c>
-      <c r="AA59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>688360</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>-1</v>
@@ -4475,7 +5519,7 @@
         <v>6397.93</v>
       </c>
       <c r="J60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -4495,8 +5539,23 @@
       <c r="P60">
         <v>-0.03</v>
       </c>
+      <c r="Q60">
+        <v>-4.34</v>
+      </c>
+      <c r="R60">
+        <v>23.5</v>
+      </c>
+      <c r="S60">
+        <v>-1.59</v>
+      </c>
       <c r="V60" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -4504,22 +5563,25 @@
       <c r="Z60">
         <v>5.386505603790283</v>
       </c>
-      <c r="AA60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>688499</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61">
         <v>2.95</v>
@@ -4537,7 +5599,7 @@
         <v>21555.25</v>
       </c>
       <c r="J61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K61">
         <v>26</v>
@@ -4557,8 +5619,23 @@
       <c r="P61">
         <v>-0.04</v>
       </c>
+      <c r="Q61">
+        <v>-1.11</v>
+      </c>
+      <c r="R61">
+        <v>54.5</v>
+      </c>
+      <c r="S61">
+        <v>7.11</v>
+      </c>
       <c r="V61" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -4566,22 +5643,25 @@
       <c r="Z61">
         <v>4.095145702362061</v>
       </c>
-      <c r="AA61" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>688668</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62">
         <v>2.28</v>
@@ -4599,7 +5679,7 @@
         <v>17665.45</v>
       </c>
       <c r="J62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K62">
         <v>4</v>
@@ -4619,8 +5699,23 @@
       <c r="P62">
         <v>0.2</v>
       </c>
+      <c r="Q62">
+        <v>-0.87</v>
+      </c>
+      <c r="R62">
+        <v>79.2</v>
+      </c>
+      <c r="S62">
+        <v>-0.71</v>
+      </c>
       <c r="V62" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -4628,8 +5723,11 @@
       <c r="Z62">
         <v>5.365828514099121</v>
       </c>
-      <c r="AA62" t="s">
-        <v>128</v>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
